--- a/test/アカウント更新、削除テスト.xlsx
+++ b/test/アカウント更新、削除テスト.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="242">
   <si>
     <t>単体テスト</t>
   </si>
@@ -406,6 +406,63 @@
   <si>
     <t>アラートが表示されてはいを押すとusersテーブルから選択されたユーザーの列が消える。
 いいえを押すとアラートが閉じる。</t>
+  </si>
+  <si>
+    <t>ログインユーザーの列を選んでいる場合に押された時</t>
+  </si>
+  <si>
+    <t>ログインユーザーの名前（姓）が更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーの名前（名）の入力フォームが更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーのカナ（姓）が更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーのカナ（名）が更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーのメールアドレスが更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーのパスワードが更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーの性別の選択が更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーの郵便番号が更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーの住所が更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーの勤務先会社名が更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーの担当業務が更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーのスタッフコードが更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーのアカウント権限が更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーの更新がされた時</t>
+  </si>
+  <si>
+    <t>ヘッダーの苗字が表示が変わっていること</t>
+  </si>
+  <si>
+    <t>ヘッダーの名前が表示が変わっていること</t>
+  </si>
+  <si>
+    <t>ヘッダーのメールアドレスが表示が変わっていること</t>
+  </si>
+  <si>
+    <t>ヘッダーのアカウント権限が表示が変わっていること</t>
   </si>
   <si>
     <t>結合テスト</t>
@@ -5112,7 +5169,7 @@
         <v>15</v>
       </c>
       <c r="F158" s="6">
-        <v>45381.0</v>
+        <v>45383.0</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>16</v>
@@ -5122,70 +5179,446 @@
       </c>
     </row>
     <row r="159">
-      <c r="F159" s="6"/>
+      <c r="A159" s="8">
+        <v>156.0</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I159" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
-      <c r="F160" s="6"/>
+      <c r="A160" s="3">
+        <v>157.0</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I160" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="8">
+        <v>158.0</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C161" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I161" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="10"/>
+      <c r="A162" s="3">
+        <v>159.0</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F162" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I162" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="10"/>
+      <c r="A163" s="8">
+        <v>160.0</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C163" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I163" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
-      <c r="B164" s="9"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="10"/>
+      <c r="A164" s="3">
+        <v>161.0</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I164" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
-      <c r="B165" s="9"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="10"/>
+      <c r="A165" s="8">
+        <v>162.0</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I165" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
-      <c r="B166" s="9"/>
-      <c r="C166" s="9"/>
-      <c r="D166" s="10"/>
+      <c r="A166" s="3">
+        <v>163.0</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I166" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
-      <c r="B167" s="9"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="10"/>
+      <c r="A167" s="8">
+        <v>164.0</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I167" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="10"/>
+      <c r="A168" s="3">
+        <v>165.0</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F168" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I168" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
-      <c r="D169" s="10"/>
+      <c r="A169" s="8">
+        <v>166.0</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I169" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
-      <c r="B170" s="9"/>
-      <c r="C170" s="9"/>
-      <c r="D170" s="10"/>
+      <c r="A170" s="3">
+        <v>167.0</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C170" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F170" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I170" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="10"/>
+      <c r="A171" s="8">
+        <v>168.0</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F171" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I171" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
-      <c r="B172" s="9"/>
-      <c r="C172" s="9"/>
-      <c r="D172" s="10"/>
+      <c r="A172" s="3">
+        <v>169.0</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I172" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
-      <c r="B173" s="9"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="10"/>
+      <c r="A173" s="8">
+        <v>170.0</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C173" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I173" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3">
+        <v>171.0</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F174" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I174" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="8">
+        <v>172.0</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C175" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F175" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I175" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5211,7 +5644,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="14" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -5257,10 +5690,10 @@
         <v>67</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
@@ -5286,10 +5719,10 @@
         <v>76</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -5313,10 +5746,10 @@
         <v>77</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -5340,10 +5773,10 @@
         <v>78</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -5367,10 +5800,10 @@
         <v>83</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
@@ -5394,10 +5827,10 @@
         <v>79</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -5421,10 +5854,10 @@
         <v>109</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -5448,10 +5881,10 @@
         <v>85</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -5475,10 +5908,10 @@
         <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
@@ -5502,10 +5935,10 @@
         <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -5529,10 +5962,10 @@
         <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>15</v>
@@ -5556,10 +5989,10 @@
         <v>38</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>15</v>
@@ -5583,10 +6016,10 @@
         <v>110</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>15</v>
@@ -5607,13 +6040,13 @@
         <v>14.0</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>15</v>
@@ -5634,13 +6067,13 @@
         <v>15.0</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>15</v>
@@ -5661,13 +6094,13 @@
         <v>16.0</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>15</v>
@@ -5688,13 +6121,13 @@
         <v>17.0</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>15</v>
@@ -5715,13 +6148,13 @@
         <v>18.0</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
@@ -5742,13 +6175,13 @@
         <v>19.0</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>15</v>
@@ -5769,13 +6202,13 @@
         <v>20.0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>15</v>
@@ -5796,13 +6229,13 @@
         <v>21.0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>15</v>
@@ -5823,13 +6256,13 @@
         <v>22.0</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>15</v>
@@ -5850,13 +6283,13 @@
         <v>23.0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>15</v>
@@ -5877,13 +6310,13 @@
         <v>24.0</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>15</v>
@@ -5904,13 +6337,13 @@
         <v>25.0</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>15</v>
@@ -5931,13 +6364,13 @@
         <v>26.0</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>15</v>
@@ -5958,13 +6391,13 @@
         <v>27.0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>15</v>
@@ -5985,13 +6418,13 @@
         <v>28.0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>15</v>
@@ -6012,13 +6445,13 @@
         <v>29.0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>15</v>
@@ -6039,13 +6472,13 @@
         <v>30.0</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>15</v>
@@ -6066,13 +6499,13 @@
         <v>31.0</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>15</v>
@@ -6093,13 +6526,13 @@
         <v>32.0</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>15</v>
@@ -6120,13 +6553,13 @@
         <v>33.0</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>15</v>
@@ -6147,13 +6580,13 @@
         <v>34.0</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>15</v>
@@ -6174,13 +6607,13 @@
         <v>35.0</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>15</v>
@@ -6201,13 +6634,13 @@
         <v>36.0</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>15</v>
@@ -6228,13 +6661,13 @@
         <v>37.0</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>15</v>
@@ -6255,13 +6688,13 @@
         <v>38.0</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>15</v>
@@ -6282,13 +6715,13 @@
         <v>39.0</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>15</v>
@@ -6309,13 +6742,13 @@
         <v>40.0</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>15</v>
@@ -6336,13 +6769,13 @@
         <v>41.0</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>15</v>
@@ -6363,13 +6796,13 @@
         <v>42.0</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>15</v>
@@ -6390,13 +6823,13 @@
         <v>43.0</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>15</v>
@@ -6417,13 +6850,13 @@
         <v>44.0</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>15</v>
@@ -6444,13 +6877,13 @@
         <v>45.0</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>15</v>
@@ -6471,13 +6904,13 @@
         <v>46.0</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>15</v>
@@ -6498,13 +6931,13 @@
         <v>47.0</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>15</v>
@@ -6524,13 +6957,13 @@
         <v>48.0</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>15</v>
@@ -6550,13 +6983,13 @@
         <v>49.0</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>15</v>
@@ -6576,13 +7009,13 @@
         <v>50.0</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>15</v>
@@ -6602,13 +7035,13 @@
         <v>51.0</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>15</v>
@@ -6628,13 +7061,13 @@
         <v>52.0</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>15</v>
@@ -6654,13 +7087,13 @@
         <v>53.0</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>15</v>
@@ -6680,13 +7113,13 @@
         <v>54.0</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>15</v>
@@ -6706,13 +7139,13 @@
         <v>55.0</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>15</v>
@@ -6732,13 +7165,13 @@
         <v>56.0</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>15</v>
@@ -6758,13 +7191,13 @@
         <v>57.0</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>15</v>
@@ -6784,13 +7217,13 @@
         <v>58.0</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>15</v>
@@ -6810,13 +7243,13 @@
         <v>59.0</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>15</v>
@@ -6836,13 +7269,13 @@
         <v>60.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>15</v>
@@ -6862,13 +7295,13 @@
         <v>61.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>15</v>
@@ -6888,13 +7321,13 @@
         <v>62.0</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>15</v>
@@ -6914,13 +7347,13 @@
         <v>63.0</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>15</v>
@@ -7326,19 +7759,472 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" s="9"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="9"/>
+      <c r="A82" s="14">
+        <v>79.0</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
-      <c r="B83" s="9"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="9"/>
+      <c r="A83" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
-      <c r="B84" s="9"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="9"/>
+      <c r="A84" s="14">
+        <v>81.0</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="14">
+        <v>82.0</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3">
+        <v>83.0</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="14">
+        <v>84.0</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="14">
+        <v>85.0</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3">
+        <v>86.0</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="14">
+        <v>87.0</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="14">
+        <v>88.0</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3">
+        <v>89.0</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="14">
+        <v>90.0</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="14">
+        <v>91.0</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3">
+        <v>92.0</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="14">
+        <v>93.0</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="14">
+        <v>94.0</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3">
+        <v>95.0</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="14">
+        <v>96.0</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="6">
+        <v>45383.0</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
